--- a/Particles.xlsx
+++ b/Particles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vassi\Documents\GitHub\2dsimulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A0FDD0-963B-462A-A632-D76CA76A7F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B27FF-E993-4D50-B6DF-6FA15AFAAE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DE619D-6995-4E91-B9DC-FA3EE74EDF28}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="particles" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1367">
   <si>
     <t>NH4+</t>
   </si>
@@ -4123,6 +4122,18 @@
   </si>
   <si>
     <t>Tin atom cation</t>
+  </si>
+  <si>
+    <t>Fe(CN)6-3</t>
+  </si>
+  <si>
+    <t>Fe(CN)6-4</t>
+  </si>
+  <si>
+    <t>Ferricyanide cation</t>
+  </si>
+  <si>
+    <t>Ferrocyanide cation</t>
   </si>
 </sst>
 </file>
@@ -4474,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7027885-C586-45E0-A2DC-A2149F6C2AEF}">
-  <dimension ref="A1:G683"/>
+  <dimension ref="A1:G685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="A682" sqref="A682"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="E682" sqref="E682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18614,7 +18625,7 @@
         <v>1126</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E566" t="b">
         <v>0</v>
@@ -18638,7 +18649,7 @@
         <v>1128</v>
       </c>
       <c r="D567">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E567" t="b">
         <v>0</v>
@@ -18662,7 +18673,7 @@
         <v>1130</v>
       </c>
       <c r="D568">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E568" t="b">
         <v>0</v>
@@ -18686,7 +18697,7 @@
         <v>1132</v>
       </c>
       <c r="D569">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E569" t="b">
         <v>0</v>
@@ -18710,7 +18721,7 @@
         <v>1134</v>
       </c>
       <c r="D570">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E570" t="b">
         <v>0</v>
@@ -18734,7 +18745,7 @@
         <v>1136</v>
       </c>
       <c r="D571">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E571" t="b">
         <v>0</v>
@@ -18758,7 +18769,7 @@
         <v>16</v>
       </c>
       <c r="D572">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E572" t="b">
         <v>0</v>
@@ -18782,7 +18793,7 @@
         <v>1139</v>
       </c>
       <c r="D573">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -18806,7 +18817,7 @@
         <v>1141</v>
       </c>
       <c r="D574">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E574" t="b">
         <v>0</v>
@@ -18830,7 +18841,7 @@
         <v>1143</v>
       </c>
       <c r="D575">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E575" t="b">
         <v>0</v>
@@ -18854,7 +18865,7 @@
         <v>1145</v>
       </c>
       <c r="D576">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E576" t="b">
         <v>0</v>
@@ -18878,7 +18889,7 @@
         <v>1147</v>
       </c>
       <c r="D577">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E577" t="b">
         <v>0</v>
@@ -18902,7 +18913,7 @@
         <v>1149</v>
       </c>
       <c r="D578">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E578" t="b">
         <v>0</v>
@@ -18926,7 +18937,7 @@
         <v>1151</v>
       </c>
       <c r="D579">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E579" t="b">
         <v>0</v>
@@ -18950,7 +18961,7 @@
         <v>1153</v>
       </c>
       <c r="D580">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E580" t="b">
         <v>0</v>
@@ -18974,7 +18985,7 @@
         <v>1119</v>
       </c>
       <c r="D581">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E581" t="b">
         <v>0</v>
@@ -18998,7 +19009,7 @@
         <v>1156</v>
       </c>
       <c r="D582">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E582" t="b">
         <v>0</v>
@@ -19022,7 +19033,7 @@
         <v>1158</v>
       </c>
       <c r="D583">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E583" t="b">
         <v>0</v>
@@ -19046,7 +19057,7 @@
         <v>1160</v>
       </c>
       <c r="D584">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E584" t="b">
         <v>0</v>
@@ -19070,7 +19081,7 @@
         <v>1162</v>
       </c>
       <c r="D585">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E585" t="b">
         <v>0</v>
@@ -19094,7 +19105,7 @@
         <v>1164</v>
       </c>
       <c r="D586">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E586" t="b">
         <v>0</v>
@@ -19118,7 +19129,7 @@
         <v>1166</v>
       </c>
       <c r="D587">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E587" t="b">
         <v>0</v>
@@ -19142,7 +19153,7 @@
         <v>1168</v>
       </c>
       <c r="D588">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E588" t="b">
         <v>0</v>
@@ -19166,7 +19177,7 @@
         <v>1170</v>
       </c>
       <c r="D589">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E589" t="b">
         <v>0</v>
@@ -19190,7 +19201,7 @@
         <v>1172</v>
       </c>
       <c r="D590">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E590" t="b">
         <v>0</v>
@@ -19214,7 +19225,7 @@
         <v>1174</v>
       </c>
       <c r="D591">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E591" t="b">
         <v>0</v>
@@ -19238,7 +19249,7 @@
         <v>1176</v>
       </c>
       <c r="D592">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E592" t="b">
         <v>0</v>
@@ -19262,7 +19273,7 @@
         <v>1178</v>
       </c>
       <c r="D593">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E593" t="b">
         <v>0</v>
@@ -19286,7 +19297,7 @@
         <v>1180</v>
       </c>
       <c r="D594">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E594" t="b">
         <v>0</v>
@@ -19310,7 +19321,7 @@
         <v>1182</v>
       </c>
       <c r="D595">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E595" t="b">
         <v>0</v>
@@ -19334,7 +19345,7 @@
         <v>1184</v>
       </c>
       <c r="D596">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E596" t="b">
         <v>0</v>
@@ -19358,7 +19369,7 @@
         <v>1186</v>
       </c>
       <c r="D597">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E597" t="b">
         <v>0</v>
@@ -19382,7 +19393,7 @@
         <v>1188</v>
       </c>
       <c r="D598">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E598" t="b">
         <v>0</v>
@@ -19406,7 +19417,7 @@
         <v>1190</v>
       </c>
       <c r="D599">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E599" t="b">
         <v>0</v>
@@ -19430,7 +19441,7 @@
         <v>1192</v>
       </c>
       <c r="D600">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E600" t="b">
         <v>0</v>
@@ -19454,7 +19465,7 @@
         <v>1194</v>
       </c>
       <c r="D601">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E601" t="b">
         <v>0</v>
@@ -19478,7 +19489,7 @@
         <v>1196</v>
       </c>
       <c r="D602">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E602" t="b">
         <v>0</v>
@@ -19502,7 +19513,7 @@
         <v>1198</v>
       </c>
       <c r="D603">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E603" t="b">
         <v>0</v>
@@ -19526,7 +19537,7 @@
         <v>1200</v>
       </c>
       <c r="D604">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E604" t="b">
         <v>0</v>
@@ -19550,7 +19561,7 @@
         <v>1202</v>
       </c>
       <c r="D605">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E605" t="b">
         <v>0</v>
@@ -19574,7 +19585,7 @@
         <v>1204</v>
       </c>
       <c r="D606">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E606" t="b">
         <v>0</v>
@@ -19598,7 +19609,7 @@
         <v>1206</v>
       </c>
       <c r="D607">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E607" t="b">
         <v>0</v>
@@ -19622,7 +19633,7 @@
         <v>1208</v>
       </c>
       <c r="D608">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E608" t="b">
         <v>0</v>
@@ -19646,7 +19657,7 @@
         <v>1210</v>
       </c>
       <c r="D609">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E609" t="b">
         <v>0</v>
@@ -19670,7 +19681,7 @@
         <v>1212</v>
       </c>
       <c r="D610">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E610" t="b">
         <v>0</v>
@@ -19694,7 +19705,7 @@
         <v>1214</v>
       </c>
       <c r="D611">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E611" t="b">
         <v>0</v>
@@ -19718,7 +19729,7 @@
         <v>1216</v>
       </c>
       <c r="D612">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E612" t="b">
         <v>0</v>
@@ -19742,7 +19753,7 @@
         <v>1218</v>
       </c>
       <c r="D613">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E613" t="b">
         <v>0</v>
@@ -19766,7 +19777,7 @@
         <v>1220</v>
       </c>
       <c r="D614">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E614" t="b">
         <v>0</v>
@@ -19790,7 +19801,7 @@
         <v>1222</v>
       </c>
       <c r="D615">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E615" t="b">
         <v>0</v>
@@ -19814,7 +19825,7 @@
         <v>1224</v>
       </c>
       <c r="D616">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E616" t="b">
         <v>0</v>
@@ -19838,7 +19849,7 @@
         <v>1226</v>
       </c>
       <c r="D617">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E617" t="b">
         <v>0</v>
@@ -19862,7 +19873,7 @@
         <v>1228</v>
       </c>
       <c r="D618">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E618" t="b">
         <v>0</v>
@@ -19886,7 +19897,7 @@
         <v>1230</v>
       </c>
       <c r="D619">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E619" t="b">
         <v>0</v>
@@ -19910,7 +19921,7 @@
         <v>1232</v>
       </c>
       <c r="D620">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E620" t="b">
         <v>0</v>
@@ -19934,7 +19945,7 @@
         <v>1234</v>
       </c>
       <c r="D621">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E621" t="b">
         <v>0</v>
@@ -19958,7 +19969,7 @@
         <v>1236</v>
       </c>
       <c r="D622">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E622" t="b">
         <v>0</v>
@@ -19982,7 +19993,7 @@
         <v>1238</v>
       </c>
       <c r="D623">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E623" t="b">
         <v>0</v>
@@ -20006,7 +20017,7 @@
         <v>1240</v>
       </c>
       <c r="D624">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E624" t="b">
         <v>0</v>
@@ -20030,7 +20041,7 @@
         <v>1242</v>
       </c>
       <c r="D625">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E625" t="b">
         <v>0</v>
@@ -20054,7 +20065,7 @@
         <v>1244</v>
       </c>
       <c r="D626">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E626" t="b">
         <v>0</v>
@@ -20078,7 +20089,7 @@
         <v>1246</v>
       </c>
       <c r="D627">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E627" t="b">
         <v>0</v>
@@ -20102,7 +20113,7 @@
         <v>1248</v>
       </c>
       <c r="D628">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E628" t="b">
         <v>0</v>
@@ -20126,7 +20137,7 @@
         <v>1250</v>
       </c>
       <c r="D629">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E629" t="b">
         <v>0</v>
@@ -20150,7 +20161,7 @@
         <v>1252</v>
       </c>
       <c r="D630">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E630" t="b">
         <v>0</v>
@@ -20159,7 +20170,7 @@
         <v>1123</v>
       </c>
       <c r="G630" t="str">
-        <f t="shared" ref="G630:G683" si="19">TEXT(MOD(A630,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A630,100)+5,0) &amp; "," &amp; 5</f>
+        <f t="shared" ref="G630:G685" si="19">TEXT(MOD(A630,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A630,100)+5,0) &amp; "," &amp; 5</f>
         <v>179,11,5</v>
       </c>
     </row>
@@ -20174,7 +20185,7 @@
         <v>1254</v>
       </c>
       <c r="D631">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E631" t="b">
         <v>0</v>
@@ -20198,7 +20209,7 @@
         <v>1256</v>
       </c>
       <c r="D632">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E632" t="b">
         <v>0</v>
@@ -20222,7 +20233,7 @@
         <v>1258</v>
       </c>
       <c r="D633">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E633" t="b">
         <v>0</v>
@@ -20246,7 +20257,7 @@
         <v>1260</v>
       </c>
       <c r="D634">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E634" t="b">
         <v>0</v>
@@ -20270,7 +20281,7 @@
         <v>1262</v>
       </c>
       <c r="D635">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E635" t="b">
         <v>0</v>
@@ -20294,7 +20305,7 @@
         <v>1264</v>
       </c>
       <c r="D636">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E636" t="b">
         <v>0</v>
@@ -20318,7 +20329,7 @@
         <v>1266</v>
       </c>
       <c r="D637">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E637" t="b">
         <v>0</v>
@@ -20342,7 +20353,7 @@
         <v>1268</v>
       </c>
       <c r="D638">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E638" t="b">
         <v>0</v>
@@ -20366,7 +20377,7 @@
         <v>1270</v>
       </c>
       <c r="D639">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E639" t="b">
         <v>0</v>
@@ -20390,7 +20401,7 @@
         <v>1272</v>
       </c>
       <c r="D640">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E640" t="b">
         <v>0</v>
@@ -20414,7 +20425,7 @@
         <v>1274</v>
       </c>
       <c r="D641">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E641" t="b">
         <v>0</v>
@@ -20438,7 +20449,7 @@
         <v>1276</v>
       </c>
       <c r="D642">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E642" t="b">
         <v>0</v>
@@ -20462,7 +20473,7 @@
         <v>1278</v>
       </c>
       <c r="D643">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E643" t="b">
         <v>0</v>
@@ -20486,7 +20497,7 @@
         <v>1280</v>
       </c>
       <c r="D644">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E644" t="b">
         <v>0</v>
@@ -20510,7 +20521,7 @@
         <v>1282</v>
       </c>
       <c r="D645">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E645" t="b">
         <v>0</v>
@@ -20534,7 +20545,7 @@
         <v>1284</v>
       </c>
       <c r="D646">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E646" t="b">
         <v>0</v>
@@ -20558,7 +20569,7 @@
         <v>1286</v>
       </c>
       <c r="D647">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E647" t="b">
         <v>0</v>
@@ -20582,7 +20593,7 @@
         <v>1288</v>
       </c>
       <c r="D648">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E648" t="b">
         <v>0</v>
@@ -20606,7 +20617,7 @@
         <v>1290</v>
       </c>
       <c r="D649">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E649" t="b">
         <v>0</v>
@@ -20630,7 +20641,7 @@
         <v>1292</v>
       </c>
       <c r="D650">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E650" t="b">
         <v>0</v>
@@ -20654,7 +20665,7 @@
         <v>1294</v>
       </c>
       <c r="D651">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E651" t="b">
         <v>0</v>
@@ -20678,7 +20689,7 @@
         <v>1296</v>
       </c>
       <c r="D652">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E652" t="b">
         <v>0</v>
@@ -20702,7 +20713,7 @@
         <v>1298</v>
       </c>
       <c r="D653">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E653" t="b">
         <v>0</v>
@@ -20726,7 +20737,7 @@
         <v>1300</v>
       </c>
       <c r="D654">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E654" t="b">
         <v>0</v>
@@ -20750,7 +20761,7 @@
         <v>1302</v>
       </c>
       <c r="D655">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E655" t="b">
         <v>0</v>
@@ -20774,7 +20785,7 @@
         <v>1304</v>
       </c>
       <c r="D656">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E656" t="b">
         <v>0</v>
@@ -20798,7 +20809,7 @@
         <v>1306</v>
       </c>
       <c r="D657">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E657" t="b">
         <v>0</v>
@@ -20822,7 +20833,7 @@
         <v>1308</v>
       </c>
       <c r="D658">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E658" t="b">
         <v>0</v>
@@ -20846,7 +20857,7 @@
         <v>1310</v>
       </c>
       <c r="D659">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E659" t="b">
         <v>0</v>
@@ -20870,7 +20881,7 @@
         <v>1312</v>
       </c>
       <c r="D660">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E660" t="b">
         <v>0</v>
@@ -20894,7 +20905,7 @@
         <v>1314</v>
       </c>
       <c r="D661">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E661" t="b">
         <v>0</v>
@@ -20918,7 +20929,7 @@
         <v>1316</v>
       </c>
       <c r="D662">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E662" t="b">
         <v>0</v>
@@ -20942,7 +20953,7 @@
         <v>1318</v>
       </c>
       <c r="D663">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E663" t="b">
         <v>0</v>
@@ -20966,7 +20977,7 @@
         <v>1320</v>
       </c>
       <c r="D664">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E664" t="b">
         <v>0</v>
@@ -20990,7 +21001,7 @@
         <v>1322</v>
       </c>
       <c r="D665">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E665" t="b">
         <v>0</v>
@@ -21014,7 +21025,7 @@
         <v>1324</v>
       </c>
       <c r="D666">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E666" t="b">
         <v>0</v>
@@ -21038,7 +21049,7 @@
         <v>1326</v>
       </c>
       <c r="D667">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E667" t="b">
         <v>0</v>
@@ -21062,7 +21073,7 @@
         <v>1328</v>
       </c>
       <c r="D668">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E668" t="b">
         <v>0</v>
@@ -21086,7 +21097,7 @@
         <v>1330</v>
       </c>
       <c r="D669">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E669" t="b">
         <v>0</v>
@@ -21110,7 +21121,7 @@
         <v>1332</v>
       </c>
       <c r="D670">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E670" t="b">
         <v>0</v>
@@ -21134,7 +21145,7 @@
         <v>1334</v>
       </c>
       <c r="D671">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E671" t="b">
         <v>0</v>
@@ -21158,7 +21169,7 @@
         <v>1336</v>
       </c>
       <c r="D672">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E672" t="b">
         <v>0</v>
@@ -21182,7 +21193,7 @@
         <v>1338</v>
       </c>
       <c r="D673">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E673" t="b">
         <v>0</v>
@@ -21206,7 +21217,7 @@
         <v>1340</v>
       </c>
       <c r="D674">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E674" t="b">
         <v>0</v>
@@ -21230,7 +21241,7 @@
         <v>1342</v>
       </c>
       <c r="D675">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E675" t="b">
         <v>0</v>
@@ -21254,7 +21265,7 @@
         <v>1344</v>
       </c>
       <c r="D676">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E676" t="b">
         <v>0</v>
@@ -21278,7 +21289,7 @@
         <v>1346</v>
       </c>
       <c r="D677">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E677" t="b">
         <v>0</v>
@@ -21302,7 +21313,7 @@
         <v>1348</v>
       </c>
       <c r="D678">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="E678" t="b">
         <v>0</v>
@@ -21326,7 +21337,7 @@
         <v>1350</v>
       </c>
       <c r="D679">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E679" t="b">
         <v>0</v>
@@ -21350,7 +21361,7 @@
         <v>1352</v>
       </c>
       <c r="D680">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E680" t="b">
         <v>0</v>
@@ -21374,7 +21385,7 @@
         <v>1354</v>
       </c>
       <c r="D681">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E681" t="b">
         <v>0</v>
@@ -21398,7 +21409,7 @@
         <v>1356</v>
       </c>
       <c r="D682">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E682" t="b">
         <v>0</v>
@@ -21413,24 +21424,72 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D683">
+        <v>-3</v>
+      </c>
+      <c r="E683" t="b">
+        <v>0</v>
+      </c>
+      <c r="F683" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G683" t="str">
+        <f t="shared" si="19"/>
+        <v>232,11,5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D684">
+        <v>-4</v>
+      </c>
+      <c r="E684" t="b">
+        <v>1</v>
+      </c>
+      <c r="F684" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G684" t="str">
+        <f t="shared" si="19"/>
+        <v>233,11,5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685">
         <v>684</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B685" t="s">
         <v>1361</v>
       </c>
-      <c r="C683" t="s">
+      <c r="C685" t="s">
         <v>1362</v>
       </c>
-      <c r="D683">
-        <v>49</v>
-      </c>
-      <c r="E683" t="b">
-        <v>0</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G683" t="str">
+      <c r="D685">
+        <v>-2</v>
+      </c>
+      <c r="E685" t="b">
+        <v>1</v>
+      </c>
+      <c r="F685" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G685" t="str">
         <f t="shared" si="19"/>
         <v>234,11,5</v>
       </c>

--- a/Particles.xlsx
+++ b/Particles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vassi\Documents\GitHub\2dsimulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B27FF-E993-4D50-B6DF-6FA15AFAAE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA52274-3BF5-40C0-9AE4-6EE5FA0BCAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DE619D-6995-4E91-B9DC-FA3EE74EDF28}"/>
   </bookViews>
@@ -2996,9 +2996,6 @@
     <t>n-propylamine, protonated</t>
   </si>
   <si>
-    <t>CO3--</t>
-  </si>
-  <si>
     <t>carbonate</t>
   </si>
   <si>
@@ -3230,9 +3227,6 @@
     <t>Carbon suboxide cation</t>
   </si>
   <si>
-    <t>PO4---</t>
-  </si>
-  <si>
     <t>phosphate</t>
   </si>
   <si>
@@ -3305,9 +3299,6 @@
     <t>Pyridinium</t>
   </si>
   <si>
-    <t>C2O4--</t>
-  </si>
-  <si>
     <t>oxalate anion</t>
   </si>
   <si>
@@ -4134,6 +4125,15 @@
   </si>
   <si>
     <t>Ferrocyanide cation</t>
+  </si>
+  <si>
+    <t>PO4-3</t>
+  </si>
+  <si>
+    <t>CO3-2</t>
+  </si>
+  <si>
+    <t>C2O4-2</t>
   </si>
 </sst>
 </file>
@@ -4487,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7027885-C586-45E0-A2DC-A2149F6C2AEF}">
   <dimension ref="A1:G685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
-      <selection activeCell="E682" sqref="E682"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4499,25 +4499,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4573,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -4597,10 +4597,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C6" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -5095,7 +5095,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -5320,7 +5320,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -5370,7 +5370,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">TEXT(MOD(A67,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A67,100)+5,0) &amp; "," &amp; 5</f>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
@@ -6558,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
@@ -6983,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
@@ -7158,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
@@ -7233,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
@@ -7708,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
@@ -7758,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G194" si="4">TEXT(MOD(A131,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A131,100)+5,0) &amp; "," &amp; 5</f>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
@@ -7908,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
@@ -7933,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
@@ -8358,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
@@ -8708,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="4"/>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="4"/>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="4"/>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="4"/>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="4"/>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="4"/>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="4"/>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="4"/>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="4"/>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="4"/>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="4"/>
@@ -9008,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="4"/>
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="4"/>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="4"/>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="4"/>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="4"/>
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="4"/>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="4"/>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="4"/>
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="4"/>
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="4"/>
@@ -9258,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="4"/>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="4"/>
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="4"/>
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="4"/>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" ref="G195:G258" si="6">TEXT(MOD(A195,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A195,100)+5,0) &amp; "," &amp; 5</f>
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="6"/>
@@ -9408,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="6"/>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="6"/>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="6"/>
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="6"/>
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="6"/>
@@ -9533,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="6"/>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="6"/>
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="6"/>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="6"/>
@@ -9633,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="6"/>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="6"/>
@@ -9683,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="6"/>
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="6"/>
@@ -9733,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="6"/>
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="6"/>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="6"/>
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="6"/>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="6"/>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="6"/>
@@ -9883,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="6"/>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="6"/>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="6"/>
@@ -9958,7 +9958,7 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="6"/>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="6"/>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="6"/>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="6"/>
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="6"/>
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="6"/>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="6"/>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="6"/>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="6"/>
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="6"/>
@@ -10208,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="6"/>
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="6"/>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="6"/>
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="6"/>
@@ -10308,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="6"/>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="6"/>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="6"/>
@@ -10383,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="6"/>
@@ -10408,7 +10408,7 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="6"/>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="6"/>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="6"/>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="6"/>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="6"/>
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="6"/>
@@ -10558,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="6"/>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="6"/>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="6"/>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="6"/>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="6"/>
@@ -10683,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="6"/>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="6"/>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="F250" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="6"/>
@@ -10758,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="6"/>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="6"/>
@@ -10808,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="6"/>
@@ -10833,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="F254" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="6"/>
@@ -10858,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="6"/>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="6"/>
@@ -10908,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="6"/>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="6"/>
@@ -10958,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" ref="G259:G322" si="8">TEXT(MOD(A259,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A259,100)+5,0) &amp; "," &amp; 5</f>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="8"/>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="8"/>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="8"/>
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="8"/>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="8"/>
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="8"/>
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="8"/>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="8"/>
@@ -11183,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="8"/>
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="8"/>
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="8"/>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="8"/>
@@ -11283,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="8"/>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="8"/>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G274" t="str">
         <f t="shared" si="8"/>
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="F275" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="8"/>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="F276" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="8"/>
@@ -11408,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="F277" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G277" t="str">
         <f t="shared" si="8"/>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="F278" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G278" t="str">
         <f t="shared" si="8"/>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="F279" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G279" t="str">
         <f t="shared" si="8"/>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="8"/>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G281" t="str">
         <f t="shared" si="8"/>
@@ -11533,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="F282" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G282" t="str">
         <f t="shared" si="8"/>
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="F283" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="8"/>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G284" t="str">
         <f t="shared" si="8"/>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G285" t="str">
         <f t="shared" si="8"/>
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="F286" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="8"/>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="F287" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="8"/>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="8"/>
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="F289" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="8"/>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="8"/>
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="8"/>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="8"/>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="8"/>
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="F294" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="8"/>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="F295" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="8"/>
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="F296" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="8"/>
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="8"/>
@@ -11933,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="F298" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="8"/>
@@ -11958,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="F299" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="8"/>
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="F300" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="8"/>
@@ -12008,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="F301" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="8"/>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="F302" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="8"/>
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="F303" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G303" t="str">
         <f t="shared" si="8"/>
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="F304" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="8"/>
@@ -12108,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="F305" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="8"/>
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="F306" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="8"/>
@@ -12158,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="F307" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G307" t="str">
         <f t="shared" si="8"/>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="F308" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G308" t="str">
         <f t="shared" si="8"/>
@@ -12208,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="F309" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G309" t="str">
         <f t="shared" si="8"/>
@@ -12233,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="F310" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G310" t="str">
         <f t="shared" si="8"/>
@@ -12258,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="F311" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G311" t="str">
         <f t="shared" si="8"/>
@@ -12283,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="F312" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G312" t="str">
         <f t="shared" si="8"/>
@@ -12308,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="F313" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G313" t="str">
         <f t="shared" si="8"/>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="F314" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G314" t="str">
         <f t="shared" si="8"/>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G315" t="str">
         <f t="shared" si="8"/>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="F316" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G316" t="str">
         <f t="shared" si="8"/>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="F317" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G317" t="str">
         <f t="shared" si="8"/>
@@ -12433,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="F318" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G318" t="str">
         <f t="shared" si="8"/>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G319" t="str">
         <f t="shared" si="8"/>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="F320" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G320" t="str">
         <f t="shared" si="8"/>
@@ -12508,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="F321" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G321" t="str">
         <f t="shared" si="8"/>
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="F322" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G322" t="str">
         <f t="shared" si="8"/>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="F323" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G323" t="str">
         <f t="shared" ref="G323:G386" si="10">TEXT(MOD(A323,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A323,100)+5,0) &amp; "," &amp; 5</f>
@@ -12583,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="F324" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G324" t="str">
         <f t="shared" si="10"/>
@@ -12608,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="F325" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G325" t="str">
         <f t="shared" si="10"/>
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="F326" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G326" t="str">
         <f t="shared" si="10"/>
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="F327" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G327" t="str">
         <f t="shared" si="10"/>
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="F328" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G328" t="str">
         <f t="shared" si="10"/>
@@ -12708,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="F329" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G329" t="str">
         <f t="shared" si="10"/>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="F330" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G330" t="str">
         <f t="shared" si="10"/>
@@ -12758,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="F331" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G331" t="str">
         <f t="shared" si="10"/>
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="F332" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G332" t="str">
         <f t="shared" si="10"/>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="F333" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G333" t="str">
         <f t="shared" si="10"/>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="F334" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G334" t="str">
         <f t="shared" si="10"/>
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="F335" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G335" t="str">
         <f t="shared" si="10"/>
@@ -12883,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G336" t="str">
         <f t="shared" si="10"/>
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="F337" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G337" t="str">
         <f t="shared" si="10"/>
@@ -12933,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="F338" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G338" t="str">
         <f t="shared" si="10"/>
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="F339" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G339" t="str">
         <f t="shared" si="10"/>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="F340" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G340" t="str">
         <f t="shared" si="10"/>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="F341" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G341" t="str">
         <f t="shared" si="10"/>
@@ -13033,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="F342" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G342" t="str">
         <f t="shared" si="10"/>
@@ -13058,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="F343" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G343" t="str">
         <f t="shared" si="10"/>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="F344" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G344" t="str">
         <f t="shared" si="10"/>
@@ -13108,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="F345" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G345" t="str">
         <f t="shared" si="10"/>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="F346" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G346" t="str">
         <f t="shared" si="10"/>
@@ -13158,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="F347" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G347" t="str">
         <f t="shared" si="10"/>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="F348" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G348" t="str">
         <f t="shared" si="10"/>
@@ -13208,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="F349" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G349" t="str">
         <f t="shared" si="10"/>
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="F350" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G350" t="str">
         <f t="shared" si="10"/>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="F351" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G351" t="str">
         <f t="shared" si="10"/>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="F352" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G352" t="str">
         <f t="shared" si="10"/>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="F353" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G353" t="str">
         <f t="shared" si="10"/>
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="F354" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G354" t="str">
         <f t="shared" si="10"/>
@@ -13358,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="F355" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G355" t="str">
         <f t="shared" si="10"/>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="F356" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G356" t="str">
         <f t="shared" si="10"/>
@@ -13408,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="F357" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G357" t="str">
         <f t="shared" si="10"/>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="F358" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G358" t="str">
         <f t="shared" si="10"/>
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="F359" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G359" t="str">
         <f t="shared" si="10"/>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="F360" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G360" t="str">
         <f t="shared" si="10"/>
@@ -13508,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="F361" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G361" t="str">
         <f t="shared" si="10"/>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="F362" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G362" t="str">
         <f t="shared" si="10"/>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="F363" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G363" t="str">
         <f t="shared" si="10"/>
@@ -13583,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G364" t="str">
         <f t="shared" si="10"/>
@@ -13608,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="F365" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G365" t="str">
         <f t="shared" si="10"/>
@@ -13633,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="F366" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G366" t="str">
         <f t="shared" si="10"/>
@@ -13658,7 +13658,7 @@
         <v>1</v>
       </c>
       <c r="F367" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G367" t="str">
         <f t="shared" si="10"/>
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G368" t="str">
         <f t="shared" si="10"/>
@@ -13708,7 +13708,7 @@
         <v>1</v>
       </c>
       <c r="F369" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G369" t="str">
         <f t="shared" si="10"/>
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="F370" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G370" t="str">
         <f t="shared" si="10"/>
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="F371" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G371" t="str">
         <f t="shared" si="10"/>
@@ -13783,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G372" t="str">
         <f t="shared" si="10"/>
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G373" t="str">
         <f t="shared" si="10"/>
@@ -13833,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="F374" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G374" t="str">
         <f t="shared" si="10"/>
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F375" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G375" t="str">
         <f t="shared" si="10"/>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="F376" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G376" t="str">
         <f t="shared" si="10"/>
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="F377" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G377" t="str">
         <f t="shared" si="10"/>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="F378" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G378" t="str">
         <f t="shared" si="10"/>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="F379" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G379" t="str">
         <f t="shared" si="10"/>
@@ -13983,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="F380" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G380" t="str">
         <f t="shared" si="10"/>
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="F381" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G381" t="str">
         <f t="shared" si="10"/>
@@ -14033,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="F382" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G382" t="str">
         <f t="shared" si="10"/>
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="F383" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G383" t="str">
         <f t="shared" si="10"/>
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="F384" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G384" t="str">
         <f t="shared" si="10"/>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G385" t="str">
         <f t="shared" si="10"/>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G386" t="str">
         <f t="shared" si="10"/>
@@ -14158,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="F387" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G387" t="str">
         <f t="shared" ref="G387:G450" si="12">TEXT(MOD(A387,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A387,100)+5,0) &amp; "," &amp; 5</f>
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="F388" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G388" t="str">
         <f t="shared" si="12"/>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G389" t="str">
         <f t="shared" si="12"/>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G390" t="str">
         <f t="shared" si="12"/>
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="F391" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G391" t="str">
         <f t="shared" si="12"/>
@@ -14283,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="F392" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G392" t="str">
         <f t="shared" si="12"/>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="F393" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G393" t="str">
         <f t="shared" si="12"/>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="F394" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G394" t="str">
         <f t="shared" si="12"/>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="F395" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G395" t="str">
         <f t="shared" si="12"/>
@@ -14383,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G396" t="str">
         <f t="shared" si="12"/>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G397" t="str">
         <f t="shared" si="12"/>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="F398" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G398" t="str">
         <f t="shared" si="12"/>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="F399" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G399" t="str">
         <f t="shared" si="12"/>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="F400" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G400" t="str">
         <f t="shared" si="12"/>
@@ -14508,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="F401" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G401" t="str">
         <f t="shared" si="12"/>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="F402" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G402" t="str">
         <f t="shared" si="12"/>
@@ -14558,7 +14558,7 @@
         <v>1</v>
       </c>
       <c r="F403" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G403" t="str">
         <f t="shared" si="12"/>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="F404" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G404" t="str">
         <f t="shared" si="12"/>
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="F405" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G405" t="str">
         <f t="shared" si="12"/>
@@ -14633,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="F406" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G406" t="str">
         <f t="shared" si="12"/>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="F407" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G407" t="str">
         <f t="shared" si="12"/>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="F408" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G408" t="str">
         <f t="shared" si="12"/>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="F409" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G409" t="str">
         <f t="shared" si="12"/>
@@ -14733,7 +14733,7 @@
         <v>1</v>
       </c>
       <c r="F410" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G410" t="str">
         <f t="shared" si="12"/>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G411" t="str">
         <f t="shared" si="12"/>
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="F412" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G412" t="str">
         <f t="shared" si="12"/>
@@ -14808,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="F413" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G413" t="str">
         <f t="shared" si="12"/>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="F414" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G414" t="str">
         <f t="shared" si="12"/>
@@ -14858,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="F415" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G415" t="str">
         <f t="shared" si="12"/>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="F416" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G416" t="str">
         <f t="shared" si="12"/>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="F417" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G417" t="str">
         <f t="shared" si="12"/>
@@ -14933,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="F418" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G418" t="str">
         <f t="shared" si="12"/>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G419" t="str">
         <f t="shared" si="12"/>
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="F420" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G420" t="str">
         <f t="shared" si="12"/>
@@ -15008,7 +15008,7 @@
         <v>1</v>
       </c>
       <c r="F421" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G421" t="str">
         <f t="shared" si="12"/>
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="F422" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G422" t="str">
         <f t="shared" si="12"/>
@@ -15058,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="F423" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G423" t="str">
         <f t="shared" si="12"/>
@@ -15083,7 +15083,7 @@
         <v>1</v>
       </c>
       <c r="F424" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G424" t="str">
         <f t="shared" si="12"/>
@@ -15108,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="F425" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G425" t="str">
         <f t="shared" si="12"/>
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="F426" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G426" t="str">
         <f t="shared" si="12"/>
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="F427" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G427" t="str">
         <f t="shared" si="12"/>
@@ -15183,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="F428" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G428" t="str">
         <f t="shared" si="12"/>
@@ -15208,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="F429" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G429" t="str">
         <f t="shared" si="12"/>
@@ -15233,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="F430" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G430" t="str">
         <f t="shared" si="12"/>
@@ -15258,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="F431" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G431" t="str">
         <f t="shared" si="12"/>
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="F432" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G432" t="str">
         <f t="shared" si="12"/>
@@ -15308,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="F433" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G433" t="str">
         <f t="shared" si="12"/>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="F434" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G434" t="str">
         <f t="shared" si="12"/>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="F435" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G435" t="str">
         <f t="shared" si="12"/>
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="F436" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G436" t="str">
         <f t="shared" si="12"/>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="F437" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G437" t="str">
         <f t="shared" si="12"/>
@@ -15433,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="F438" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G438" t="str">
         <f t="shared" si="12"/>
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="F439" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G439" t="str">
         <f t="shared" si="12"/>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="F440" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G440" t="str">
         <f t="shared" si="12"/>
@@ -15508,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="F441" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G441" t="str">
         <f t="shared" si="12"/>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="F442" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G442" t="str">
         <f t="shared" si="12"/>
@@ -15558,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="F443" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G443" t="str">
         <f t="shared" si="12"/>
@@ -15583,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="F444" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G444" t="str">
         <f t="shared" si="12"/>
@@ -15608,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="F445" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G445" t="str">
         <f t="shared" si="12"/>
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="F446" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G446" t="str">
         <f t="shared" si="12"/>
@@ -15658,7 +15658,7 @@
         <v>1</v>
       </c>
       <c r="F447" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G447" t="str">
         <f t="shared" si="12"/>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G448" t="str">
         <f t="shared" si="12"/>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G449" t="str">
         <f t="shared" si="12"/>
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="F450" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G450" t="str">
         <f t="shared" si="12"/>
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="F451" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G451" t="str">
         <f t="shared" ref="G451:G514" si="14">TEXT(MOD(A451,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A451,100)+5,0) &amp; "," &amp; 5</f>
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G452" t="str">
         <f t="shared" si="14"/>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G453" t="str">
         <f t="shared" si="14"/>
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="F454" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G454" t="str">
         <f t="shared" si="14"/>
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="F455" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G455" t="str">
         <f t="shared" si="14"/>
@@ -15883,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="F456" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G456" t="str">
         <f t="shared" si="14"/>
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="F457" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G457" t="str">
         <f t="shared" si="14"/>
@@ -15933,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="F458" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G458" t="str">
         <f t="shared" si="14"/>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="F459" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G459" t="str">
         <f t="shared" si="14"/>
@@ -15983,7 +15983,7 @@
         <v>1</v>
       </c>
       <c r="F460" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G460" t="str">
         <f t="shared" si="14"/>
@@ -16008,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="F461" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G461" t="str">
         <f t="shared" si="14"/>
@@ -16033,7 +16033,7 @@
         <v>1</v>
       </c>
       <c r="F462" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G462" t="str">
         <f t="shared" si="14"/>
@@ -16058,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="F463" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G463" t="str">
         <f t="shared" si="14"/>
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="F464" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G464" t="str">
         <f t="shared" si="14"/>
@@ -16108,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="F465" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G465" t="str">
         <f t="shared" si="14"/>
@@ -16133,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="F466" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G466" t="str">
         <f t="shared" si="14"/>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="F467" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G467" t="str">
         <f t="shared" si="14"/>
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="F468" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G468" t="str">
         <f t="shared" si="14"/>
@@ -16208,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="F469" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G469" t="str">
         <f t="shared" si="14"/>
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="F470" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G470" t="str">
         <f t="shared" si="14"/>
@@ -16258,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="F471" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G471" t="str">
         <f t="shared" si="14"/>
@@ -16283,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="F472" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G472" t="str">
         <f t="shared" si="14"/>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G473" t="str">
         <f t="shared" si="14"/>
@@ -16333,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="F474" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G474" t="str">
         <f t="shared" si="14"/>
@@ -16358,7 +16358,7 @@
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G475" t="str">
         <f t="shared" si="14"/>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="F476" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G476" t="str">
         <f t="shared" si="14"/>
@@ -16408,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G477" t="str">
         <f t="shared" si="14"/>
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="F478" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G478" t="str">
         <f t="shared" si="14"/>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="F479" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G479" t="str">
         <f t="shared" si="14"/>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G480" t="str">
         <f t="shared" si="14"/>
@@ -16508,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="F481" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G481" t="str">
         <f t="shared" si="14"/>
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="F482" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G482" t="str">
         <f t="shared" si="14"/>
@@ -16558,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="F483" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G483" t="str">
         <f t="shared" si="14"/>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="F484" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G484" t="str">
         <f t="shared" si="14"/>
@@ -16608,7 +16608,7 @@
         <v>1</v>
       </c>
       <c r="F485" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G485" t="str">
         <f t="shared" si="14"/>
@@ -16633,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="F486" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G486" t="str">
         <f t="shared" si="14"/>
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="F487" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G487" t="str">
         <f t="shared" si="14"/>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="F488" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G488" t="str">
         <f t="shared" si="14"/>
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="F489" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G489" t="str">
         <f t="shared" si="14"/>
@@ -16733,7 +16733,7 @@
         <v>1</v>
       </c>
       <c r="F490" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G490" t="str">
         <f t="shared" si="14"/>
@@ -16758,7 +16758,7 @@
         <v>1</v>
       </c>
       <c r="F491" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G491" t="str">
         <f t="shared" si="14"/>
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G492" t="str">
         <f t="shared" si="14"/>
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="F493" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G493" t="str">
         <f t="shared" si="14"/>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="F494" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G494" t="str">
         <f t="shared" si="14"/>
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="F495" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G495" t="str">
         <f t="shared" si="14"/>
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="F496" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G496" t="str">
         <f t="shared" si="14"/>
@@ -16908,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="F497" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G497" t="str">
         <f t="shared" si="14"/>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
       <c r="F498" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G498" t="str">
         <f t="shared" si="14"/>
@@ -16958,7 +16958,7 @@
         <v>1</v>
       </c>
       <c r="F499" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G499" t="str">
         <f t="shared" si="14"/>
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="F500" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G500" t="str">
         <f t="shared" si="14"/>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
       <c r="F501" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G501" t="str">
         <f t="shared" si="14"/>
@@ -17020,10 +17020,10 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C502" t="s">
         <v>987</v>
-      </c>
-      <c r="C502" t="s">
-        <v>988</v>
       </c>
       <c r="D502">
         <v>-2</v>
@@ -17033,7 +17033,7 @@
         <v>1</v>
       </c>
       <c r="F502" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G502" t="str">
         <f t="shared" si="14"/>
@@ -17045,10 +17045,10 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
+        <v>988</v>
+      </c>
+      <c r="C503" t="s">
         <v>989</v>
-      </c>
-      <c r="C503" t="s">
-        <v>990</v>
       </c>
       <c r="D503">
         <v>-1</v>
@@ -17058,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="F503" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G503" t="str">
         <f t="shared" si="14"/>
@@ -17070,10 +17070,10 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
+        <v>990</v>
+      </c>
+      <c r="C504" t="s">
         <v>991</v>
-      </c>
-      <c r="C504" t="s">
-        <v>992</v>
       </c>
       <c r="D504">
         <v>1</v>
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="F504" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G504" t="str">
         <f t="shared" si="14"/>
@@ -17095,10 +17095,10 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
+        <v>992</v>
+      </c>
+      <c r="C505" t="s">
         <v>993</v>
-      </c>
-      <c r="C505" t="s">
-        <v>994</v>
       </c>
       <c r="D505">
         <v>-1</v>
@@ -17108,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="F505" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G505" t="str">
         <f t="shared" si="14"/>
@@ -17120,10 +17120,10 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
+        <v>994</v>
+      </c>
+      <c r="C506" t="s">
         <v>995</v>
-      </c>
-      <c r="C506" t="s">
-        <v>996</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -17133,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="F506" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G506" t="str">
         <f t="shared" si="14"/>
@@ -17145,10 +17145,10 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
+        <v>996</v>
+      </c>
+      <c r="C507" t="s">
         <v>997</v>
-      </c>
-      <c r="C507" t="s">
-        <v>998</v>
       </c>
       <c r="D507">
         <v>-1</v>
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G507" t="str">
         <f t="shared" si="14"/>
@@ -17170,10 +17170,10 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
+        <v>998</v>
+      </c>
+      <c r="C508" t="s">
         <v>999</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1000</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -17183,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="F508" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G508" t="str">
         <f t="shared" si="14"/>
@@ -17195,10 +17195,10 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C509" t="s">
         <v>1001</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1002</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -17208,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="F509" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G509" t="str">
         <f t="shared" si="14"/>
@@ -17220,10 +17220,10 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C510" t="s">
         <v>1003</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1004</v>
       </c>
       <c r="D510">
         <v>-1</v>
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="F510" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G510" t="str">
         <f t="shared" si="14"/>
@@ -17245,10 +17245,10 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C511" t="s">
         <v>1005</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1006</v>
       </c>
       <c r="D511">
         <v>1</v>
@@ -17258,7 +17258,7 @@
         <v>1</v>
       </c>
       <c r="F511" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G511" t="str">
         <f t="shared" si="14"/>
@@ -17270,10 +17270,10 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C512" t="s">
         <v>1007</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1008</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="F512" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G512" t="str">
         <f t="shared" si="14"/>
@@ -17295,10 +17295,10 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C513" t="s">
         <v>1009</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1010</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -17308,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="F513" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G513" t="str">
         <f t="shared" si="14"/>
@@ -17320,10 +17320,10 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C514" t="s">
         <v>1011</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1012</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -17333,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="F514" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G514" t="str">
         <f t="shared" si="14"/>
@@ -17345,10 +17345,10 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C515" t="s">
         <v>1013</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1014</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -17358,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="F515" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G515" t="str">
         <f t="shared" ref="G515:G565" si="16">TEXT(MOD(A515,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A515,100)+5,0) &amp; "," &amp; 5</f>
@@ -17370,10 +17370,10 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C516" t="s">
         <v>1015</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1016</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -17383,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="F516" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G516" t="str">
         <f t="shared" si="16"/>
@@ -17395,10 +17395,10 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C517" t="s">
         <v>1017</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1018</v>
       </c>
       <c r="D517">
         <v>-1</v>
@@ -17408,7 +17408,7 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G517" t="str">
         <f t="shared" si="16"/>
@@ -17420,10 +17420,10 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C518" t="s">
         <v>1019</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1020</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -17433,7 +17433,7 @@
         <v>1</v>
       </c>
       <c r="F518" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G518" t="str">
         <f t="shared" si="16"/>
@@ -17445,10 +17445,10 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C519" t="s">
         <v>1021</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1022</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -17458,7 +17458,7 @@
         <v>1</v>
       </c>
       <c r="F519" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G519" t="str">
         <f t="shared" si="16"/>
@@ -17470,10 +17470,10 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C520" t="s">
         <v>1023</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1024</v>
       </c>
       <c r="D520">
         <v>-1</v>
@@ -17483,7 +17483,7 @@
         <v>1</v>
       </c>
       <c r="F520" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G520" t="str">
         <f t="shared" si="16"/>
@@ -17495,10 +17495,10 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C521" t="s">
         <v>1025</v>
-      </c>
-      <c r="C521" t="s">
-        <v>1026</v>
       </c>
       <c r="D521">
         <v>1</v>
@@ -17508,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G521" t="str">
         <f t="shared" si="16"/>
@@ -17520,10 +17520,10 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C522" t="s">
         <v>1027</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1028</v>
       </c>
       <c r="D522">
         <v>-1</v>
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="F522" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G522" t="str">
         <f t="shared" si="16"/>
@@ -17545,10 +17545,10 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C523" t="s">
         <v>1029</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1030</v>
       </c>
       <c r="D523">
         <v>-1</v>
@@ -17558,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="F523" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G523" t="str">
         <f t="shared" si="16"/>
@@ -17570,10 +17570,10 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C524" t="s">
         <v>1031</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1032</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -17583,7 +17583,7 @@
         <v>1</v>
       </c>
       <c r="F524" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G524" t="str">
         <f t="shared" si="16"/>
@@ -17595,10 +17595,10 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C525" t="s">
         <v>1033</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1034</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -17608,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="F525" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G525" t="str">
         <f t="shared" si="16"/>
@@ -17620,10 +17620,10 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C526" t="s">
         <v>1035</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1036</v>
       </c>
       <c r="D526">
         <v>-1</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="F526" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G526" t="str">
         <f t="shared" si="16"/>
@@ -17645,10 +17645,10 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C527" t="s">
         <v>1037</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1038</v>
       </c>
       <c r="D527">
         <v>1</v>
@@ -17658,7 +17658,7 @@
         <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G527" t="str">
         <f t="shared" si="16"/>
@@ -17670,10 +17670,10 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C528" t="s">
         <v>1039</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1040</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="F528" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G528" t="str">
         <f t="shared" si="16"/>
@@ -17695,10 +17695,10 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C529" t="s">
         <v>1041</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1042</v>
       </c>
       <c r="D529">
         <v>-1</v>
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="F529" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G529" t="str">
         <f t="shared" si="16"/>
@@ -17720,10 +17720,10 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C530" t="s">
         <v>1043</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1044</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -17733,7 +17733,7 @@
         <v>1</v>
       </c>
       <c r="F530" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G530" t="str">
         <f t="shared" si="16"/>
@@ -17745,10 +17745,10 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C531" t="s">
         <v>1045</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1046</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="F531" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G531" t="str">
         <f t="shared" si="16"/>
@@ -17770,10 +17770,10 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C532" t="s">
         <v>1047</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1048</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -17783,7 +17783,7 @@
         <v>1</v>
       </c>
       <c r="F532" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G532" t="str">
         <f t="shared" si="16"/>
@@ -17795,10 +17795,10 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C533" t="s">
         <v>1049</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1050</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -17808,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="F533" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G533" t="str">
         <f t="shared" si="16"/>
@@ -17820,10 +17820,10 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C534" t="s">
         <v>1051</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1052</v>
       </c>
       <c r="D534">
         <v>-1</v>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="F534" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G534" t="str">
         <f t="shared" si="16"/>
@@ -17845,10 +17845,10 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C535" t="s">
         <v>1053</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1054</v>
       </c>
       <c r="D535">
         <v>-1</v>
@@ -17858,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="F535" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G535" t="str">
         <f t="shared" si="16"/>
@@ -17870,10 +17870,10 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C536" t="s">
         <v>1055</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1056</v>
       </c>
       <c r="D536">
         <v>-1</v>
@@ -17883,7 +17883,7 @@
         <v>1</v>
       </c>
       <c r="F536" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G536" t="str">
         <f t="shared" si="16"/>
@@ -17895,10 +17895,10 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C537" t="s">
         <v>1057</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1058</v>
       </c>
       <c r="D537">
         <v>1</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="F537" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G537" t="str">
         <f t="shared" si="16"/>
@@ -17920,10 +17920,10 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C538" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D538">
         <v>1</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="F538" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G538" t="str">
         <f t="shared" si="16"/>
@@ -17945,10 +17945,10 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C539" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="F539" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G539" t="str">
         <f t="shared" si="16"/>
@@ -17970,10 +17970,10 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C540" t="s">
         <v>1061</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1062</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="F540" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G540" t="str">
         <f t="shared" si="16"/>
@@ -17995,10 +17995,10 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C541" t="s">
         <v>1063</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1064</v>
       </c>
       <c r="D541">
         <v>1</v>
@@ -18008,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="F541" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G541" t="str">
         <f t="shared" si="16"/>
@@ -18020,10 +18020,10 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>1065</v>
+        <v>1364</v>
       </c>
       <c r="C542" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D542">
         <v>-3</v>
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="F542" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G542" t="str">
         <f t="shared" si="16"/>
@@ -18045,10 +18045,10 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C543" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D543">
         <v>-2</v>
@@ -18058,7 +18058,7 @@
         <v>1</v>
       </c>
       <c r="F543" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G543" t="str">
         <f t="shared" si="16"/>
@@ -18070,10 +18070,10 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C544" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D544">
         <v>-1</v>
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="F544" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G544" t="str">
         <f t="shared" si="16"/>
@@ -18095,10 +18095,10 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C545" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D545">
         <v>1</v>
@@ -18108,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="F545" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G545" t="str">
         <f t="shared" si="16"/>
@@ -18120,10 +18120,10 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C546" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D546">
         <v>1</v>
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="F546" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G546" t="str">
         <f t="shared" si="16"/>
@@ -18145,10 +18145,10 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C547" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D547">
         <v>-1</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="F547" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G547" t="str">
         <f t="shared" si="16"/>
@@ -18170,10 +18170,10 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C548" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D548">
         <v>-1</v>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="F548" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G548" t="str">
         <f t="shared" si="16"/>
@@ -18195,10 +18195,10 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C549" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D549">
         <v>1</v>
@@ -18208,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="F549" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G549" t="str">
         <f t="shared" si="16"/>
@@ -18220,10 +18220,10 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C550" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D550">
         <v>1</v>
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="F550" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G550" t="str">
         <f t="shared" si="16"/>
@@ -18245,10 +18245,10 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C551" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D551">
         <v>-1</v>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="F551" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G551" t="str">
         <f t="shared" si="16"/>
@@ -18270,10 +18270,10 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C552" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="F552" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G552" t="str">
         <f t="shared" si="16"/>
@@ -18295,10 +18295,10 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C553" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -18308,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="F553" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G553" t="str">
         <f t="shared" si="16"/>
@@ -18320,10 +18320,10 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C554" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         <v>1</v>
       </c>
       <c r="F554" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G554" t="str">
         <f t="shared" si="16"/>
@@ -18345,10 +18345,10 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>1090</v>
+        <v>1366</v>
       </c>
       <c r="C555" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D555">
         <v>-2</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="F555" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G555" t="str">
         <f t="shared" si="16"/>
@@ -18370,10 +18370,10 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C556" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -18383,7 +18383,7 @@
         <v>1</v>
       </c>
       <c r="F556" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G556" t="str">
         <f t="shared" si="16"/>
@@ -18395,10 +18395,10 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C557" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -18408,7 +18408,7 @@
         <v>1</v>
       </c>
       <c r="F557" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G557" t="str">
         <f t="shared" si="16"/>
@@ -18420,10 +18420,10 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C558" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D558">
         <v>-1</v>
@@ -18433,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="F558" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G558" t="str">
         <f t="shared" si="16"/>
@@ -18445,10 +18445,10 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C559" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -18458,7 +18458,7 @@
         <v>1</v>
       </c>
       <c r="F559" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G559" t="str">
         <f t="shared" si="16"/>
@@ -18470,10 +18470,10 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C560" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="F560" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G560" t="str">
         <f t="shared" si="16"/>
@@ -18495,10 +18495,10 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C561" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D561">
         <v>-1</v>
@@ -18508,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="F561" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G561" t="str">
         <f t="shared" si="16"/>
@@ -18520,10 +18520,10 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C562" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D562">
         <v>-1</v>
@@ -18533,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="F562" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G562" t="str">
         <f t="shared" si="16"/>
@@ -18545,10 +18545,10 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C563" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D563">
         <v>-1</v>
@@ -18558,7 +18558,7 @@
         <v>1</v>
       </c>
       <c r="F563" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G563" t="str">
         <f t="shared" si="16"/>
@@ -18570,10 +18570,10 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C564" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D564">
         <v>-2</v>
@@ -18583,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="F564" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G564" t="str">
         <f t="shared" si="16"/>
@@ -18595,7 +18595,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C565" t="s">
         <v>15</v>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="F565" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G565" t="str">
         <f t="shared" si="16"/>
@@ -18619,10 +18619,10 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C566" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D566">
         <v>0</v>
@@ -18631,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="F566" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G566" t="str">
         <f t="shared" ref="G566:G629" si="18">TEXT(MOD(A566,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A566,100)+5,0) &amp; "," &amp; 5</f>
@@ -18643,10 +18643,10 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C567" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D567">
         <v>0</v>
@@ -18655,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G567" t="str">
         <f t="shared" si="18"/>
@@ -18667,10 +18667,10 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C568" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="F568" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G568" t="str">
         <f t="shared" si="18"/>
@@ -18691,10 +18691,10 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C569" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D569">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="F569" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G569" t="str">
         <f t="shared" si="18"/>
@@ -18715,10 +18715,10 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C570" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D570">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="F570" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G570" t="str">
         <f t="shared" si="18"/>
@@ -18739,10 +18739,10 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C571" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="F571" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G571" t="str">
         <f t="shared" si="18"/>
@@ -18763,7 +18763,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C572" t="s">
         <v>16</v>
@@ -18775,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="F572" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G572" t="str">
         <f t="shared" si="18"/>
@@ -18787,10 +18787,10 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C573" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D573">
         <v>0</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="F573" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G573" t="str">
         <f t="shared" si="18"/>
@@ -18811,10 +18811,10 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C574" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -18823,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="F574" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G574" t="str">
         <f t="shared" si="18"/>
@@ -18835,10 +18835,10 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C575" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="F575" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G575" t="str">
         <f t="shared" si="18"/>
@@ -18859,10 +18859,10 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C576" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="F576" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G576" t="str">
         <f t="shared" si="18"/>
@@ -18883,10 +18883,10 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C577" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="F577" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G577" t="str">
         <f t="shared" si="18"/>
@@ -18907,10 +18907,10 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C578" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -18919,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="F578" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G578" t="str">
         <f t="shared" si="18"/>
@@ -18931,10 +18931,10 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C579" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D579">
         <v>0</v>
@@ -18943,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="F579" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G579" t="str">
         <f t="shared" si="18"/>
@@ -18955,10 +18955,10 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C580" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="F580" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G580" t="str">
         <f t="shared" si="18"/>
@@ -18979,10 +18979,10 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C581" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -18991,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="F581" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G581" t="str">
         <f t="shared" si="18"/>
@@ -19003,10 +19003,10 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C582" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D582">
         <v>0</v>
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="F582" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G582" t="str">
         <f t="shared" si="18"/>
@@ -19027,10 +19027,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C583" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="F583" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G583" t="str">
         <f t="shared" si="18"/>
@@ -19051,10 +19051,10 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C584" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D584">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="F584" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G584" t="str">
         <f t="shared" si="18"/>
@@ -19075,10 +19075,10 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C585" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="F585" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G585" t="str">
         <f t="shared" si="18"/>
@@ -19099,10 +19099,10 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C586" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -19111,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="F586" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G586" t="str">
         <f t="shared" si="18"/>
@@ -19123,10 +19123,10 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C587" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D587">
         <v>0</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="F587" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G587" t="str">
         <f t="shared" si="18"/>
@@ -19147,10 +19147,10 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C588" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="F588" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G588" t="str">
         <f t="shared" si="18"/>
@@ -19171,10 +19171,10 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C589" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D589">
         <v>0</v>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="F589" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G589" t="str">
         <f t="shared" si="18"/>
@@ -19195,10 +19195,10 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C590" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="F590" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G590" t="str">
         <f t="shared" si="18"/>
@@ -19219,10 +19219,10 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C591" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="F591" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G591" t="str">
         <f t="shared" si="18"/>
@@ -19243,10 +19243,10 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C592" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -19255,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="F592" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G592" t="str">
         <f t="shared" si="18"/>
@@ -19267,10 +19267,10 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C593" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="F593" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G593" t="str">
         <f t="shared" si="18"/>
@@ -19291,10 +19291,10 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C594" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="F594" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G594" t="str">
         <f t="shared" si="18"/>
@@ -19315,10 +19315,10 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C595" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="F595" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G595" t="str">
         <f t="shared" si="18"/>
@@ -19339,10 +19339,10 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C596" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -19351,7 +19351,7 @@
         <v>0</v>
       </c>
       <c r="F596" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G596" t="str">
         <f t="shared" si="18"/>
@@ -19363,10 +19363,10 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C597" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D597">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="F597" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G597" t="str">
         <f t="shared" si="18"/>
@@ -19387,10 +19387,10 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C598" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -19399,7 +19399,7 @@
         <v>0</v>
       </c>
       <c r="F598" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G598" t="str">
         <f t="shared" si="18"/>
@@ -19411,10 +19411,10 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C599" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="F599" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G599" t="str">
         <f t="shared" si="18"/>
@@ -19435,10 +19435,10 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C600" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="F600" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G600" t="str">
         <f t="shared" si="18"/>
@@ -19459,10 +19459,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C601" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="F601" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G601" t="str">
         <f t="shared" si="18"/>
@@ -19483,10 +19483,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C602" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="F602" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G602" t="str">
         <f t="shared" si="18"/>
@@ -19507,10 +19507,10 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C603" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="F603" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G603" t="str">
         <f t="shared" si="18"/>
@@ -19531,10 +19531,10 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C604" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D604">
         <v>0</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="F604" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G604" t="str">
         <f t="shared" si="18"/>
@@ -19555,10 +19555,10 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C605" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -19567,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="F605" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G605" t="str">
         <f t="shared" si="18"/>
@@ -19579,10 +19579,10 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C606" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="F606" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G606" t="str">
         <f t="shared" si="18"/>
@@ -19603,10 +19603,10 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C607" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="F607" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G607" t="str">
         <f t="shared" si="18"/>
@@ -19627,10 +19627,10 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C608" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="F608" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G608" t="str">
         <f t="shared" si="18"/>
@@ -19651,10 +19651,10 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C609" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D609">
         <v>0</v>
@@ -19663,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="F609" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G609" t="str">
         <f t="shared" si="18"/>
@@ -19675,10 +19675,10 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C610" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -19687,7 +19687,7 @@
         <v>0</v>
       </c>
       <c r="F610" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G610" t="str">
         <f t="shared" si="18"/>
@@ -19699,10 +19699,10 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C611" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
       <c r="F611" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G611" t="str">
         <f t="shared" si="18"/>
@@ -19723,10 +19723,10 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C612" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D612">
         <v>0</v>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="F612" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G612" t="str">
         <f t="shared" si="18"/>
@@ -19747,10 +19747,10 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C613" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="F613" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G613" t="str">
         <f t="shared" si="18"/>
@@ -19771,10 +19771,10 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C614" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="F614" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G614" t="str">
         <f t="shared" si="18"/>
@@ -19795,10 +19795,10 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C615" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="F615" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G615" t="str">
         <f t="shared" si="18"/>
@@ -19819,10 +19819,10 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C616" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -19831,7 +19831,7 @@
         <v>0</v>
       </c>
       <c r="F616" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G616" t="str">
         <f t="shared" si="18"/>
@@ -19843,10 +19843,10 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C617" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -19855,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="F617" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G617" t="str">
         <f t="shared" si="18"/>
@@ -19867,10 +19867,10 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C618" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="F618" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G618" t="str">
         <f t="shared" si="18"/>
@@ -19891,10 +19891,10 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C619" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D619">
         <v>0</v>
@@ -19903,7 +19903,7 @@
         <v>0</v>
       </c>
       <c r="F619" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G619" t="str">
         <f t="shared" si="18"/>
@@ -19915,10 +19915,10 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C620" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="F620" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G620" t="str">
         <f t="shared" si="18"/>
@@ -19939,10 +19939,10 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C621" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D621">
         <v>0</v>
@@ -19951,7 +19951,7 @@
         <v>0</v>
       </c>
       <c r="F621" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G621" t="str">
         <f t="shared" si="18"/>
@@ -19963,10 +19963,10 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C622" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D622">
         <v>0</v>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="F622" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G622" t="str">
         <f t="shared" si="18"/>
@@ -19987,10 +19987,10 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C623" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="F623" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G623" t="str">
         <f t="shared" si="18"/>
@@ -20011,10 +20011,10 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C624" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="F624" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G624" t="str">
         <f t="shared" si="18"/>
@@ -20035,10 +20035,10 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C625" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D625">
         <v>0</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="F625" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G625" t="str">
         <f t="shared" si="18"/>
@@ -20059,10 +20059,10 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C626" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D626">
         <v>0</v>
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="F626" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G626" t="str">
         <f t="shared" si="18"/>
@@ -20083,10 +20083,10 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C627" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D627">
         <v>0</v>
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="F627" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G627" t="str">
         <f t="shared" si="18"/>
@@ -20107,10 +20107,10 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C628" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
       <c r="F628" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G628" t="str">
         <f t="shared" si="18"/>
@@ -20131,10 +20131,10 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C629" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -20143,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="F629" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G629" t="str">
         <f t="shared" si="18"/>
@@ -20155,10 +20155,10 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C630" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="F630" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G630" t="str">
         <f t="shared" ref="G630:G685" si="19">TEXT(MOD(A630,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A630,100)+5,0) &amp; "," &amp; 5</f>
@@ -20179,10 +20179,10 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C631" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="F631" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G631" t="str">
         <f t="shared" si="19"/>
@@ -20203,10 +20203,10 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C632" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -20215,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="F632" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G632" t="str">
         <f t="shared" si="19"/>
@@ -20227,10 +20227,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C633" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="F633" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G633" t="str">
         <f t="shared" si="19"/>
@@ -20251,10 +20251,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C634" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G634" t="str">
         <f t="shared" si="19"/>
@@ -20275,10 +20275,10 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C635" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -20287,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="F635" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G635" t="str">
         <f t="shared" si="19"/>
@@ -20299,10 +20299,10 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C636" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="F636" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G636" t="str">
         <f t="shared" si="19"/>
@@ -20323,10 +20323,10 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C637" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -20335,7 +20335,7 @@
         <v>0</v>
       </c>
       <c r="F637" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G637" t="str">
         <f t="shared" si="19"/>
@@ -20347,10 +20347,10 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C638" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="F638" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G638" t="str">
         <f t="shared" si="19"/>
@@ -20371,10 +20371,10 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C639" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -20383,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="F639" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G639" t="str">
         <f t="shared" si="19"/>
@@ -20395,10 +20395,10 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C640" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -20407,7 +20407,7 @@
         <v>0</v>
       </c>
       <c r="F640" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G640" t="str">
         <f t="shared" si="19"/>
@@ -20419,10 +20419,10 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C641" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="F641" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G641" t="str">
         <f t="shared" si="19"/>
@@ -20443,10 +20443,10 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C642" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -20455,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="F642" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G642" t="str">
         <f t="shared" si="19"/>
@@ -20467,10 +20467,10 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C643" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="F643" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G643" t="str">
         <f t="shared" si="19"/>
@@ -20491,10 +20491,10 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C644" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -20503,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="F644" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G644" t="str">
         <f t="shared" si="19"/>
@@ -20515,10 +20515,10 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C645" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -20527,7 +20527,7 @@
         <v>0</v>
       </c>
       <c r="F645" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G645" t="str">
         <f t="shared" si="19"/>
@@ -20539,10 +20539,10 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C646" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -20551,7 +20551,7 @@
         <v>0</v>
       </c>
       <c r="F646" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G646" t="str">
         <f t="shared" si="19"/>
@@ -20563,10 +20563,10 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C647" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -20575,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="F647" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G647" t="str">
         <f t="shared" si="19"/>
@@ -20587,10 +20587,10 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C648" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="F648" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G648" t="str">
         <f t="shared" si="19"/>
@@ -20611,10 +20611,10 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C649" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -20623,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="F649" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G649" t="str">
         <f t="shared" si="19"/>
@@ -20635,10 +20635,10 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C650" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="F650" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G650" t="str">
         <f t="shared" si="19"/>
@@ -20659,10 +20659,10 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C651" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -20671,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="F651" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G651" t="str">
         <f t="shared" si="19"/>
@@ -20683,10 +20683,10 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C652" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -20695,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="F652" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G652" t="str">
         <f t="shared" si="19"/>
@@ -20707,10 +20707,10 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C653" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -20719,7 +20719,7 @@
         <v>0</v>
       </c>
       <c r="F653" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G653" t="str">
         <f t="shared" si="19"/>
@@ -20731,10 +20731,10 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C654" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="F654" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G654" t="str">
         <f t="shared" si="19"/>
@@ -20755,10 +20755,10 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C655" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D655">
         <v>0</v>
@@ -20767,7 +20767,7 @@
         <v>0</v>
       </c>
       <c r="F655" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G655" t="str">
         <f t="shared" si="19"/>
@@ -20779,10 +20779,10 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C656" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="F656" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G656" t="str">
         <f t="shared" si="19"/>
@@ -20803,10 +20803,10 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C657" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="F657" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G657" t="str">
         <f t="shared" si="19"/>
@@ -20827,10 +20827,10 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C658" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="F658" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G658" t="str">
         <f t="shared" si="19"/>
@@ -20851,10 +20851,10 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C659" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -20863,7 +20863,7 @@
         <v>0</v>
       </c>
       <c r="F659" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G659" t="str">
         <f t="shared" si="19"/>
@@ -20875,10 +20875,10 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C660" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="F660" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G660" t="str">
         <f t="shared" si="19"/>
@@ -20899,10 +20899,10 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C661" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -20911,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="F661" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G661" t="str">
         <f t="shared" si="19"/>
@@ -20923,10 +20923,10 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C662" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -20935,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="F662" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G662" t="str">
         <f t="shared" si="19"/>
@@ -20947,10 +20947,10 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C663" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -20959,7 +20959,7 @@
         <v>0</v>
       </c>
       <c r="F663" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G663" t="str">
         <f t="shared" si="19"/>
@@ -20971,10 +20971,10 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C664" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="F664" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G664" t="str">
         <f t="shared" si="19"/>
@@ -20995,10 +20995,10 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C665" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D665">
         <v>0</v>
@@ -21007,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="F665" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G665" t="str">
         <f t="shared" si="19"/>
@@ -21019,10 +21019,10 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C666" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -21031,7 +21031,7 @@
         <v>0</v>
       </c>
       <c r="F666" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G666" t="str">
         <f t="shared" si="19"/>
@@ -21043,10 +21043,10 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C667" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
       <c r="F667" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G667" t="str">
         <f t="shared" si="19"/>
@@ -21067,10 +21067,10 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C668" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -21079,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="F668" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G668" t="str">
         <f t="shared" si="19"/>
@@ -21091,10 +21091,10 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C669" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -21103,7 +21103,7 @@
         <v>0</v>
       </c>
       <c r="F669" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G669" t="str">
         <f t="shared" si="19"/>
@@ -21115,10 +21115,10 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C670" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D670">
         <v>0</v>
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="F670" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G670" t="str">
         <f t="shared" si="19"/>
@@ -21139,10 +21139,10 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C671" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -21151,7 +21151,7 @@
         <v>0</v>
       </c>
       <c r="F671" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G671" t="str">
         <f t="shared" si="19"/>
@@ -21163,10 +21163,10 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C672" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -21175,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="F672" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G672" t="str">
         <f t="shared" si="19"/>
@@ -21187,10 +21187,10 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C673" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="F673" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G673" t="str">
         <f t="shared" si="19"/>
@@ -21211,10 +21211,10 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C674" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D674">
         <v>0</v>
@@ -21223,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="F674" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G674" t="str">
         <f t="shared" si="19"/>
@@ -21235,10 +21235,10 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C675" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D675">
         <v>0</v>
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="F675" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G675" t="str">
         <f t="shared" si="19"/>
@@ -21259,10 +21259,10 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C676" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -21271,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="F676" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G676" t="str">
         <f t="shared" si="19"/>
@@ -21283,10 +21283,10 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C677" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="F677" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G677" t="str">
         <f t="shared" si="19"/>
@@ -21307,10 +21307,10 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C678" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -21319,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="F678" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G678" t="str">
         <f t="shared" si="19"/>
@@ -21331,10 +21331,10 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C679" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="F679" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G679" t="str">
         <f t="shared" si="19"/>
@@ -21355,10 +21355,10 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C680" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D680">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="F680" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G680" t="str">
         <f t="shared" si="19"/>
@@ -21379,10 +21379,10 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C681" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -21391,7 +21391,7 @@
         <v>0</v>
       </c>
       <c r="F681" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G681" t="str">
         <f t="shared" si="19"/>
@@ -21403,10 +21403,10 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C682" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="F682" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G682" t="str">
         <f t="shared" si="19"/>
@@ -21427,10 +21427,10 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C683" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D683">
         <v>-3</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="F683" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G683" t="str">
         <f t="shared" si="19"/>
@@ -21451,10 +21451,10 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C684" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D684">
         <v>-4</v>
@@ -21463,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="F684" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G684" t="str">
         <f t="shared" si="19"/>
@@ -21475,10 +21475,10 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C685" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D685">
         <v>-2</v>
@@ -21487,7 +21487,7 @@
         <v>1</v>
       </c>
       <c r="F685" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G685" t="str">
         <f t="shared" si="19"/>

--- a/Particles.xlsx
+++ b/Particles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vassi\Documents\GitHub\2dsimulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA52274-3BF5-40C0-9AE4-6EE5FA0BCAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597DA56-B1F0-4F00-9AE5-3C2DFA41E659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DE619D-6995-4E91-B9DC-FA3EE74EDF28}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1369">
   <si>
     <t>NH4+</t>
   </si>
@@ -4134,6 +4134,12 @@
   </si>
   <si>
     <t>C2O4-2</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Hydroxyl radical</t>
   </si>
 </sst>
 </file>
@@ -4485,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7027885-C586-45E0-A2DC-A2149F6C2AEF}">
-  <dimension ref="A1:G685"/>
+  <dimension ref="A1:G686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
+      <selection activeCell="F686" sqref="F686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20170,7 +20176,7 @@
         <v>1120</v>
       </c>
       <c r="G630" t="str">
-        <f t="shared" ref="G630:G685" si="19">TEXT(MOD(A630,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A630,100)+5,0) &amp; "," &amp; 5</f>
+        <f t="shared" ref="G630:G686" si="19">TEXT(MOD(A630,100)+150,0) &amp; "," &amp; TEXT(QUOTIENT(A630,100)+5,0) &amp; "," &amp; 5</f>
         <v>179,11,5</v>
       </c>
     </row>
@@ -21460,6 +21466,7 @@
         <v>-4</v>
       </c>
       <c r="E684" t="b">
+        <f t="shared" ref="E684:E686" si="20">IF(IFERROR(FIND("atom",C684),-1)&lt;&gt;-1,FALSE,IF(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B684, "6", ""), "5", ""), "4", ""), "3", ""), "2", ""), "+", ""), "-", ""))=1,FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="F684" t="s">
@@ -21484,7 +21491,8 @@
         <v>-2</v>
       </c>
       <c r="E685" t="b">
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="F685" t="s">
         <v>1108</v>
@@ -21492,6 +21500,31 @@
       <c r="G685" t="str">
         <f t="shared" si="19"/>
         <v>234,11,5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D686">
+        <v>0</v>
+      </c>
+      <c r="E686" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>19</v>
+      </c>
+      <c r="G686" t="str">
+        <f t="shared" si="19"/>
+        <v>235,11,5</v>
       </c>
     </row>
   </sheetData>
